--- a/Employee_Reports35/Sumedha Pradeep Dissanayaka Q0559.xlsx
+++ b/Employee_Reports35/Sumedha Pradeep Dissanayaka Q0559.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -915,11 +915,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -964,11 +964,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1013,11 +1013,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1062,11 +1062,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1111,11 +1111,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1160,11 +1160,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1209,11 +1209,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1258,11 +1258,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1307,11 +1307,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1356,11 +1356,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1405,11 +1405,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1420,103 +1420,102 @@
       <c r="K20" s="3" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="n">
+      <c r="A21" s="4" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>Equipment Operation Procedure
-(SOP-031) (SOPs)</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="inlineStr">
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>Equipment  Request &amp;handover procedure(SOP-028) (SOPs)</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="inlineStr">
         <is>
           <t>CARGO</t>
         </is>
       </c>
-      <c r="D21" s="3" t="inlineStr">
-        <is>
-          <t>LSME-CRG-SOP-031</t>
-        </is>
-      </c>
-      <c r="E21" s="3" t="inlineStr">
+      <c r="D21" s="4" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-028</t>
+        </is>
+      </c>
+      <c r="E21" s="4" t="inlineStr">
         <is>
           <t>SOP</t>
         </is>
       </c>
-      <c r="F21" s="3" t="inlineStr">
-        <is>
-          <t>21-Sep-2025</t>
-        </is>
-      </c>
-      <c r="G21" s="3" t="inlineStr">
-        <is>
-          <t>21-Sep-2026</t>
-        </is>
-      </c>
-      <c r="H21" s="3" t="n">
-        <v>322</v>
-      </c>
-      <c r="I21" s="3" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J21" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K21" s="3" t="inlineStr"/>
+      <c r="F21" s="4" t="inlineStr">
+        <is>
+          <t>21-Mar-2024</t>
+        </is>
+      </c>
+      <c r="G21" s="4" t="inlineStr">
+        <is>
+          <t>21-Mar-2025</t>
+        </is>
+      </c>
+      <c r="H21" s="4" t="n">
+        <v>-228</v>
+      </c>
+      <c r="I21" s="4" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J21" s="4" t="inlineStr">
+        <is>
+          <t>NOT VALID</t>
+        </is>
+      </c>
+      <c r="K21" s="4" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="n">
+      <c r="A22" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="B22" s="4" t="inlineStr">
-        <is>
-          <t>Equipment  Request &amp;handover procedure(SOP-028) (SOPs)</t>
-        </is>
-      </c>
-      <c r="C22" s="4" t="inlineStr">
-        <is>
-          <t>CARGO</t>
-        </is>
-      </c>
-      <c r="D22" s="4" t="inlineStr">
-        <is>
-          <t>LSME-CRG-SOP-028</t>
-        </is>
-      </c>
-      <c r="E22" s="4" t="inlineStr">
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Contigency Plan During Heavy Rainfall (SOPs)</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>IMS</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>LSME-IMS-SOP-018</t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="inlineStr">
         <is>
           <t>SOP</t>
         </is>
       </c>
-      <c r="F22" s="4" t="inlineStr">
-        <is>
-          <t>21-Mar-2024</t>
-        </is>
-      </c>
-      <c r="G22" s="4" t="inlineStr">
-        <is>
-          <t>21-Mar-2025</t>
-        </is>
-      </c>
-      <c r="H22" s="4" t="n">
-        <v>-227</v>
-      </c>
-      <c r="I22" s="4" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J22" s="4" t="inlineStr">
-        <is>
-          <t>NOT VALID</t>
-        </is>
-      </c>
-      <c r="K22" s="4" t="inlineStr"/>
+      <c r="F22" s="3" t="inlineStr">
+        <is>
+          <t>19-Feb-2025</t>
+        </is>
+      </c>
+      <c r="G22" s="3" t="inlineStr">
+        <is>
+          <t>19-Feb-2026</t>
+        </is>
+      </c>
+      <c r="H22" s="3" t="n">
+        <v>107</v>
+      </c>
+      <c r="I22" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J22" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K22" s="3" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
@@ -1553,11 +1552,11 @@
         </is>
       </c>
       <c r="H23" s="3" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J23" s="3" t="inlineStr">
@@ -1602,11 +1601,11 @@
         </is>
       </c>
       <c r="H24" s="3" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J24" s="3" t="inlineStr">
@@ -1651,11 +1650,11 @@
         </is>
       </c>
       <c r="H25" s="3" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I25" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J25" s="3" t="inlineStr">
@@ -1688,11 +1687,11 @@
         </is>
       </c>
       <c r="H26" s="3" t="n">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J26" s="3" t="inlineStr">
@@ -1725,11 +1724,11 @@
         </is>
       </c>
       <c r="H27" s="3" t="n">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I27" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J27" s="3" t="inlineStr">
@@ -1762,11 +1761,11 @@
         </is>
       </c>
       <c r="H28" s="3" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I28" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J28" s="3" t="inlineStr">
@@ -1799,11 +1798,11 @@
         </is>
       </c>
       <c r="H29" s="3" t="n">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I29" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J29" s="3" t="inlineStr">

--- a/Employee_Reports35/Sumedha Pradeep Dissanayaka Q0559.xlsx
+++ b/Employee_Reports35/Sumedha Pradeep Dissanayaka Q0559.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -915,11 +915,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -964,11 +964,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1013,11 +1013,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1062,11 +1062,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1111,11 +1111,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1160,11 +1160,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1209,11 +1209,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1258,11 +1258,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1307,11 +1307,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1356,11 +1356,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1405,11 +1405,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1454,11 +1454,11 @@
         </is>
       </c>
       <c r="H21" s="4" t="n">
-        <v>-228</v>
+        <v>-229</v>
       </c>
       <c r="I21" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J21" s="4" t="inlineStr">
@@ -1503,11 +1503,11 @@
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
@@ -1552,11 +1552,11 @@
         </is>
       </c>
       <c r="H23" s="3" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J23" s="3" t="inlineStr">
@@ -1601,11 +1601,11 @@
         </is>
       </c>
       <c r="H24" s="3" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J24" s="3" t="inlineStr">
@@ -1650,11 +1650,11 @@
         </is>
       </c>
       <c r="H25" s="3" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I25" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J25" s="3" t="inlineStr">
@@ -1687,11 +1687,11 @@
         </is>
       </c>
       <c r="H26" s="3" t="n">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J26" s="3" t="inlineStr">
@@ -1724,11 +1724,11 @@
         </is>
       </c>
       <c r="H27" s="3" t="n">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I27" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J27" s="3" t="inlineStr">
@@ -1761,11 +1761,11 @@
         </is>
       </c>
       <c r="H28" s="3" t="n">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I28" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J28" s="3" t="inlineStr">
@@ -1798,11 +1798,11 @@
         </is>
       </c>
       <c r="H29" s="3" t="n">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I29" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J29" s="3" t="inlineStr">
